--- a/api_auto_maven/src/test/resources/base10/testcase.xlsx
+++ b/api_auto_maven/src/test/resources/base10/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="544"/>
   </bookViews>
   <sheets>
     <sheet name="接口基本信息" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="180">
   <si>
     <t>post</t>
   </si>
@@ -320,15 +320,6 @@
     <t>{"mobilephone":"1388888000","amount":"100"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"提现成功"}</t>
-  </si>
-  <si>
-    <t>{"memberId":"1","title":"测试新增项目","loanRate":"12","loanTerm":"3","loanDateType":"2","repaymemtWay":"11","biddingDays":"5","amount":"100000"}</t>
-  </si>
-  <si>
     <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
   </si>
   <si>
@@ -368,53 +359,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$.data.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ActualResult(实际结果)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/register</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/login</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/recharge</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/withdraw</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/list</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/bidLoan</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/add</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/audit</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/getLoanList</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/generateRepayments</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/invest/getInvestsByMemberId</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/invest/getInvestsByLoanId</t>
-  </si>
-  <si>
-    <t>http://120.78.128.25:8080/futureloan/mvc/api/financelog/getFinanceLogList</t>
-  </si>
-  <si>
     <t>ExpectedResponseData(期望响应数据)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,12 +398,6 @@
     <t>{"mobilephone":"13666666665","pwd":"${pwd}"}</t>
   </si>
   <si>
-    <t>{"memberId":"1","password":"${pwd}","loanId":"1","amount":"100"}</t>
-  </si>
-  <si>
-    <t>{"memberId":"1","password":"${pwd}","loanId":"10000","amount":"100000"}</t>
-  </si>
-  <si>
     <t>{"mobilephone":"${mobilephone}","pwd":"${pwd}","regname":"${nickname}"}</t>
   </si>
   <si>
@@ -485,6 +427,187 @@
   </si>
   <si>
     <t>select LeaveAmount from member where MobilePhone='${mobilephone}'</t>
+  </si>
+  <si>
+    <t>ReqHeader(设置Header)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RespHeader(提取Header)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtractRespData(提取响应数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssertKeyInfo(关键信息断言)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"headerName":"Set-Cookie","paramName":"cookie"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"parameterName":"memberId","jsonPath":"$.data.id"},{"parameterName":"leaveAmount","jsonPath":"$.data.leaveamount"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"手机号码已被注册"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"密码不能为空"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"手机号不能为空"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"手机号码格式不正确"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"密码长度必须为6~18"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"登录成功"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"用户名或密码错误"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"此手机号对应的会员不存在"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"请输入范围在0到50万之间的正数金额"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"充值成功"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"请输入数字"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"余额不足，请修改提现额度"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"取现成功"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"加标成功"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"更新状态成功：竞标开始，当前标为竞标中状态"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"竞标成功"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"不存在该标的"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"该项目不在核保审批或终审状态，无法生成回款计划！"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"更新状态成功：当前标为核保审批状态"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"生成回款计划成功"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"headerName":"Cookie","paramName":"cookie"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"注册成功"},{"jsonPath":"$.code","expectedValue":"10001"}]</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20119","data":null,"msg":"取现成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.msg","expectedValue":"取现成功"}]</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20117","data":null,"msg":"取现成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"余额不足，请修改提现额度"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"${mobilephone}","amount":"10000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","title":"测试新增项目","loanRate":"12","loanTerm":"3","loanDateType":"2","repaymemtWay":"11","biddingDays":"5","amount":"100000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","password":"${pwd}","loanId":"1","amount":"100"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","password":"${pwd}","loanId":"10000","amount":"100000"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/member/register</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/member/recharge</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/member/withdraw</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/member/list</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/member/bidLoan</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/loan/add</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/loan/audit</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/loan/getLoanList</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/loan/generateRepayments</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/invest/getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/invest/getInvestsByLoanId</t>
+  </si>
+  <si>
+    <t>http://localhost:9000/futureloan/mvc/api/financelog/getFinanceLogList</t>
   </si>
 </sst>
 </file>
@@ -502,6 +625,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -518,6 +642,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -543,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -582,6 +707,15 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -592,6 +726,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -886,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -924,7 +1061,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -938,7 +1075,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -951,8 +1088,8 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>116</v>
+      <c r="D4" s="15" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -965,8 +1102,8 @@
       <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>117</v>
+      <c r="D5" s="15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -980,7 +1117,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -994,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1008,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -1022,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1036,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1050,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1063,8 +1200,8 @@
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>124</v>
+      <c r="D12" s="15" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -1078,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -1091,14 +1228,18 @@
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>126</v>
+      <c r="D14" s="15" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://127.0.0.1:8765/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://120.78.128.25:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="D14" r:id="rId2" display="http://192.168.0.99:9000/futureloan/mvc/api/financelog/getFinanceLogList"/>
+    <hyperlink ref="D5" r:id="rId3" display="http://192.168.0.99:9000/futureloan/mvc/api/member/withdraw"/>
+    <hyperlink ref="D4" r:id="rId4" display="http://192.168.0.99:9000/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="D12" r:id="rId5" display="http://192.168.0.99:9000/futureloan/mvc/api/invest/getInvestsByMemberId"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1107,23 +1248,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="C22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="70.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="31.75" style="1"/>
+    <col min="4" max="4" width="35" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="31.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1137,16 +1279,28 @@
         <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1157,13 +1311,16 @@
         <v>88</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="K2" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1174,13 +1331,16 @@
         <v>88</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="K3" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1191,13 +1351,16 @@
         <v>88</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="K4" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1208,13 +1371,16 @@
         <v>88</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="K5" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1225,13 +1391,16 @@
         <v>90</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="K6" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1242,13 +1411,16 @@
         <v>88</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="K7" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1259,13 +1431,19 @@
         <v>88</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1276,13 +1454,16 @@
         <v>88</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="K9" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1293,13 +1474,16 @@
         <v>88</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="K10" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1310,13 +1494,16 @@
         <v>88</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K11" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1327,13 +1514,16 @@
         <v>88</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="K12" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1344,13 +1534,19 @@
         <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="H13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1361,13 +1557,19 @@
         <v>88</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="H14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1378,16 +1580,22 @@
         <v>88</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1403,8 +1611,14 @@
       <c r="E16" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1415,13 +1629,19 @@
         <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="H17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1432,13 +1652,19 @@
         <v>88</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1454,8 +1680,14 @@
       <c r="E19" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="H19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1465,14 +1697,20 @@
       <c r="C20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="D20" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1483,13 +1721,19 @@
         <v>88</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1500,13 +1744,19 @@
         <v>88</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1516,14 +1766,20 @@
       <c r="C23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>99</v>
+      <c r="D23" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1534,13 +1790,19 @@
         <v>88</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1550,14 +1812,20 @@
       <c r="C25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>138</v>
+      <c r="D25" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1567,14 +1835,20 @@
       <c r="C26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>139</v>
+      <c r="D26" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1585,13 +1859,19 @@
         <v>88</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1602,13 +1882,19 @@
         <v>88</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="189" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="270" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1619,10 +1905,16 @@
         <v>88</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1669,7 +1961,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>46</v>
@@ -1686,7 +1978,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>47</v>
@@ -1703,7 +1995,7 @@
         <v>45</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>48</v>
@@ -1720,7 +2012,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>49</v>
@@ -1737,7 +2029,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>48</v>
@@ -1754,7 +2046,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>48</v>
@@ -1771,7 +2063,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>51</v>
@@ -1788,7 +2080,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>52</v>
@@ -1856,7 +2148,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>52</v>
@@ -1890,7 +2182,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>66</v>
